--- a/test_data/mindfulness.xlsx
+++ b/test_data/mindfulness.xlsx
@@ -3,10 +3,11 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28800"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28800"/>
   </bookViews>
   <sheets>
     <sheet name="mindfulness" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -21,7 +22,7 @@
     <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
     <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -45,6 +46,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Consolas"/>
+      <charset val="134"/>
+      <color rgb="FF333333"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
       <color theme="1"/>
@@ -108,7 +122,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -161,14 +176,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -196,19 +203,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -220,19 +281,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,25 +341,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,84 +365,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -365,12 +378,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,6 +444,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -486,21 +508,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -517,10 +524,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="22" fontId="17" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="28" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -529,16 +536,16 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
@@ -547,122 +554,123 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="19" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="14" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="13" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="13" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="5" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="14" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="14" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="6" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="0" locked="0"/>
@@ -674,7 +682,12 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -992,73 +1005,79 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="19.25"/>
-    <col customWidth="1" max="2" min="2" style="4" width="17.375"/>
-    <col customWidth="1" max="3" min="3" style="4" width="23.375"/>
-    <col customWidth="1" max="4" min="4" style="4" width="20.875"/>
-    <col customWidth="1" max="5" min="5" style="4" width="91.625"/>
-    <col customWidth="1" max="6" min="6" style="4" width="20.25"/>
-    <col customWidth="1" max="7" min="7" style="4" width="23.375"/>
-    <col customWidth="1" max="8" min="8" style="4" width="25.75"/>
-    <col customWidth="1" max="9" min="9" style="4" width="21.75"/>
+    <col customWidth="1" max="1" min="1" style="1" width="19.25"/>
+    <col customWidth="1" max="2" min="2" style="1" width="17.375"/>
+    <col customWidth="1" max="3" min="3" style="1" width="23.375"/>
+    <col customWidth="1" max="4" min="4" style="1" width="20.875"/>
+    <col customWidth="1" max="5" min="5" style="1" width="91.625"/>
+    <col customWidth="1" max="6" min="6" style="1" width="55.25"/>
+    <col customWidth="1" max="7" min="7" style="1" width="23.375"/>
+    <col customWidth="1" max="8" min="8" style="1" width="25.75"/>
+    <col customWidth="1" max="9" min="9" style="1" width="21.75"/>
+    <col customWidth="1" max="10" min="10" style="1" width="27"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="14.25" r="1" s="4">
-      <c r="A1" s="1" t="inlineStr">
+    <row customHeight="1" ht="14.25" r="1" s="1">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>HttpMethod</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>module</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>ExpectedResult</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>ActualResult</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>TestResult</t>
         </is>
       </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
     </row>
-    <row customHeight="1" ht="38" r="2" s="4">
+    <row customHeight="1" ht="24.5" r="2" s="1">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -1074,10 +1093,10 @@
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>数据正常</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
+          <t>数据正常显示</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>http://api.mindfulness.office.bzdev.net/mindfulness/restful/index/musicenjoy.json</t>
         </is>
@@ -1099,7 +1118,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="36" r="3" s="4">
+    <row customHeight="1" ht="24.5" r="3" s="1">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
@@ -1118,7 +1137,7 @@
           <t>数据正常显示</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>http://api.mindfulness.office.bzdev.net/mindfulness/restful/index/bmgl.json</t>
         </is>
@@ -1131,19 +1150,577 @@
       <c r="G3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" s="0" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
+    <row customHeight="1" ht="24.5" r="4" s="1">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>config接口</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>数据正常显示</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>http://api.mindfulness.office.bzdev.net/mindfulness/restful/index/config.json</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="24.5" r="5" s="1">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>app首页接口数据</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>数据正常显示</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>http://api.mindfulness.office.bzdev.net/mindfulness/restful/index/index.json</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1004</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1004</v>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="24.5" r="6" s="1">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>pgc接口</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>数据正常显示</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>http://api.mindfulness.office.bzdev.net/mindfulness/restful/wiki/pgc.json</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>{'action':'list','page':1,'limit':10,'sort':'default'}</t>
+        </is>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="24.5" r="7" s="1">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>pgc接口</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>不传参数</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>http://api.mindfulness.office.bzdev.net/mindfulness/restful/wiki/pgc.json</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>{'action':'','page':'','limit':'','sort':''}</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="n"/>
+    </row>
+    <row customHeight="1" ht="24.5" r="8" s="1">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>pgc接口</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>传info</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>http://api.mindfulness.office.bzdev.net/mindfulness/restful/wiki/pgc.json</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>{'action':'info','page':1,'limit':10,'sort':'default'}</t>
+        </is>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="n"/>
+    </row>
+    <row customHeight="1" ht="24.5" r="9" s="1">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>pgc接口</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>传id</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>http://api.mindfulness.office.bzdev.net/mindfulness/restful/wiki/pgc.json</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>{'id':12}</t>
+        </is>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="24.5" r="10" s="1">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>pgc接口</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>点击量-id不填写</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>http://api.mindfulness.office.bzdev.net/mindfulness/restful/wiki/pgc.json</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>{'id':''}</t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="n"/>
+    </row>
+    <row customHeight="1" ht="24.5" r="11" s="1">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>pgc接口</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>点击量-填写id</t>
+        </is>
+      </c>
+      <c r="E11" s="6" t="inlineStr">
+        <is>
+          <t>http://api.mindfulness.office.bzdev.net/mindfulness/restful/wiki/pgc.json</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>{'id':12,'type':'plays'}</t>
+        </is>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="n"/>
+    </row>
+    <row customHeight="1" ht="24.5" r="12" s="1"/>
+    <row customHeight="1" ht="24.5" r="13" s="1"/>
+    <row customHeight="1" ht="24.5" r="14" s="1"/>
+    <row customHeight="1" ht="24.5" r="15" s="1"/>
+    <row customHeight="1" ht="24.5" r="16" s="1"/>
+    <row customHeight="1" ht="24.5" r="17" s="1"/>
+    <row customHeight="1" ht="24.5" r="18" s="1"/>
+    <row customHeight="1" ht="24.5" r="19" s="1"/>
+    <row customHeight="1" ht="24.5" r="20" s="1"/>
+    <row customHeight="1" ht="24.5" r="21" s="1"/>
+    <row customHeight="1" ht="24.5" r="22" s="1"/>
+    <row customHeight="1" ht="24.5" r="23" s="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink display="http://api.mindfulness.office.bzdev.net/mindfulness/restful/index/musicenjoy.json" ref="E2" r:id="rId1"/>
     <hyperlink display="http://api.mindfulness.office.bzdev.net/mindfulness/restful/index/bmgl.json" ref="E3" r:id="rId2"/>
+    <hyperlink display="http://api.mindfulness.office.bzdev.net/mindfulness/restful/index/config.json" ref="E4" r:id="rId3"/>
+    <hyperlink display="http://api.mindfulness.office.bzdev.net/mindfulness/restful/index/index.json" ref="E5" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="1" width="21"/>
+    <col customWidth="1" max="2" min="2" style="1" width="16.75"/>
+    <col customWidth="1" max="3" min="3" style="1" width="23.875"/>
+    <col customWidth="1" max="4" min="4" style="1" width="21"/>
+    <col customWidth="1" max="5" min="5" style="1" width="76.125"/>
+    <col customWidth="1" max="6" min="6" style="1" width="71.25"/>
+    <col customWidth="1" max="7" min="7" style="1" width="18.625"/>
+    <col customWidth="1" max="8" min="8" style="1" width="23.625"/>
+    <col customWidth="1" max="9" min="9" style="1" width="20.125"/>
+    <col customWidth="1" max="10" min="10" style="1" width="19.875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="14.25" r="1" s="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>HttpMethod</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>module</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>param</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>ExpectedResult</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>ActualResult</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>TestResult</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="59" r="2" s="1">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>登录-发送验证码</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>发送验证码</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>https://account.office.bzdev.net/restful/register/getappmobilecaptcha.json</t>
+        </is>
+      </c>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>{'captcha_type':'member_register','captcha_count':1,'phone_prefix':86,'mobile':13200000001}</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="3" s="1">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>输入验证码</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>https://account.office.bzdev.net/restful/app/codelogin.json</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'is_debug': 1, 'mobilecaptcha':'code', 'phone_prefix': 86, 'phone': 13200000001,'type':1}
+</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>个人信息接口</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>获取个人信息</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>https://api.office.bzdev.net/mindfulness/restful/member/profile.json</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="https://account.office.bzdev.net/restful/register/getappmobilecaptcha.json" ref="E2" r:id="rId1"/>
+    <hyperlink display="https://account.office.bzdev.net/restful/app/codelogin.json" ref="E3" r:id="rId2"/>
+    <hyperlink display="https://api.office.bzdev.net/mindfulness/restful/member/profile.json" ref="E4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/test_data/mindfulness.xlsx
+++ b/test_data/mindfulness.xlsx
@@ -3,11 +3,12 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28800"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28800"/>
   </bookViews>
   <sheets>
     <sheet name="mindfulness" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="info" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -22,10 +23,18 @@
     <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
     <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -54,14 +63,45 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -84,7 +124,36 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -98,14 +167,6 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FF800080"/>
       <sz val="11"/>
@@ -115,15 +176,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -137,51 +191,6 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FF006100"/>
       <sz val="11"/>
@@ -203,25 +212,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,49 +332,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,91 +368,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,6 +428,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -430,15 +463,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,32 +482,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,11 +511,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,10 +533,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="28" fontId="19" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="14" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -536,156 +545,159 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="19" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="3" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="14" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="14" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="6" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="17" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="17" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="9" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="2" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1026,52 +1038,52 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="14.25" r="1" s="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>HttpMethod</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>module</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>ExpectedResult</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>ActualResult</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>TestResult</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Comment</t>
         </is>
@@ -1096,7 +1108,7 @@
           <t>数据正常显示</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>http://api.mindfulness.office.bzdev.net/mindfulness/restful/index/musicenjoy.json</t>
         </is>
@@ -1137,7 +1149,7 @@
           <t>数据正常显示</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>http://api.mindfulness.office.bzdev.net/mindfulness/restful/index/bmgl.json</t>
         </is>
@@ -1178,7 +1190,7 @@
           <t>数据正常显示</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>http://api.mindfulness.office.bzdev.net/mindfulness/restful/index/config.json</t>
         </is>
@@ -1219,7 +1231,7 @@
           <t>数据正常显示</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>http://api.mindfulness.office.bzdev.net/mindfulness/restful/index/index.json</t>
         </is>
@@ -1260,7 +1272,7 @@
           <t>数据正常显示</t>
         </is>
       </c>
-      <c r="E6" s="6" t="inlineStr">
+      <c r="E6" s="7" t="inlineStr">
         <is>
           <t>http://api.mindfulness.office.bzdev.net/mindfulness/restful/wiki/pgc.json</t>
         </is>
@@ -1301,7 +1313,7 @@
           <t>不传参数</t>
         </is>
       </c>
-      <c r="E7" s="6" t="inlineStr">
+      <c r="E7" s="7" t="inlineStr">
         <is>
           <t>http://api.mindfulness.office.bzdev.net/mindfulness/restful/wiki/pgc.json</t>
         </is>
@@ -1343,7 +1355,7 @@
           <t>传info</t>
         </is>
       </c>
-      <c r="E8" s="6" t="inlineStr">
+      <c r="E8" s="7" t="inlineStr">
         <is>
           <t>http://api.mindfulness.office.bzdev.net/mindfulness/restful/wiki/pgc.json</t>
         </is>
@@ -1385,7 +1397,7 @@
           <t>传id</t>
         </is>
       </c>
-      <c r="E9" s="6" t="inlineStr">
+      <c r="E9" s="7" t="inlineStr">
         <is>
           <t>http://api.mindfulness.office.bzdev.net/mindfulness/restful/wiki/pgc.json</t>
         </is>
@@ -1426,7 +1438,7 @@
           <t>点击量-id不填写</t>
         </is>
       </c>
-      <c r="E10" s="6" t="inlineStr">
+      <c r="E10" s="7" t="inlineStr">
         <is>
           <t>http://api.mindfulness.office.bzdev.net/mindfulness/restful/wiki/pgc.json</t>
         </is>
@@ -1468,7 +1480,7 @@
           <t>点击量-填写id</t>
         </is>
       </c>
-      <c r="E11" s="6" t="inlineStr">
+      <c r="E11" s="7" t="inlineStr">
         <is>
           <t>http://api.mindfulness.office.bzdev.net/mindfulness/restful/wiki/pgc.json</t>
         </is>
@@ -1522,8 +1534,8 @@
   </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1541,52 +1553,52 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="14.25" r="1" s="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>HttpMethod</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>module</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>ExpectedResult</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>ActualResult</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>TestResult</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Comment</t>
         </is>
@@ -1611,14 +1623,14 @@
           <t>发送验证码</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>https://account.office.bzdev.net/restful/register/getappmobilecaptcha.json</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
-        <is>
-          <t>{'captcha_type':'member_register','captcha_count':1,'phone_prefix':86,'mobile':13200000001}</t>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>{'captcha_type':'member_register','captcha_count':1,'phone_prefix':86,'mobile':"${phone}"}</t>
         </is>
       </c>
       <c r="G2" s="0" t="n">
@@ -1652,14 +1664,14 @@
           <t>输入验证码</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>https://account.office.bzdev.net/restful/app/codelogin.json</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">{'is_debug': 1, 'mobilecaptcha':'code', 'phone_prefix': 86, 'phone': 13200000001,'type':1}
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'is_debug': 1, 'mobilecaptcha':'code', 'phone_prefix': 86, 'phone': "${phone}",'type':1}
 </t>
         </is>
       </c>
@@ -1694,7 +1706,7 @@
           <t>获取个人信息</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>https://api.office.bzdev.net/mindfulness/restful/member/profile.json</t>
         </is>
@@ -1724,4 +1736,36 @@
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col customWidth="1" max="2" min="2" style="1" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>13200000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>